--- a/NTDOY.xlsx
+++ b/NTDOY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ABF75C-2A2A-D543-AA8C-DFD252DA9662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFC3B14-2D83-424C-8B37-E67CE91720F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-68240" yWindow="-5940" windowWidth="28660" windowHeight="26980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -957,10 +957,10 @@
   <dimension ref="A1:IR63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
+      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1428,43 +1428,43 @@
         <v>549780</v>
       </c>
       <c r="E16" s="25">
-        <f>SUM(E12:E14)</f>
+        <f t="shared" ref="E16:N16" si="15">SUM(E12:E14)</f>
         <v>504458</v>
       </c>
       <c r="F16" s="25">
-        <f>SUM(F12:F14)</f>
+        <f t="shared" si="15"/>
         <v>489095</v>
       </c>
       <c r="G16" s="25">
-        <f>SUM(G12:G14)</f>
+        <f t="shared" si="15"/>
         <v>1055680</v>
       </c>
       <c r="H16" s="25">
-        <f>SUM(H12:H14)</f>
+        <f t="shared" si="15"/>
         <v>1200559</v>
       </c>
       <c r="I16" s="25">
-        <f>SUM(I12:I14)</f>
+        <f t="shared" si="15"/>
         <v>1308519</v>
       </c>
       <c r="J16" s="43">
-        <f>SUM(J12:J14)</f>
+        <f t="shared" si="15"/>
         <v>1746179.45</v>
       </c>
       <c r="K16" s="43">
-        <f>SUM(K12:K14)</f>
+        <f t="shared" si="15"/>
         <v>1923186.4325000001</v>
       </c>
       <c r="L16" s="43">
-        <f>SUM(L12:L14)</f>
+        <f t="shared" si="15"/>
         <v>2118440.9963750006</v>
       </c>
       <c r="M16" s="43">
-        <f>SUM(M12:M14)</f>
+        <f t="shared" si="15"/>
         <v>2333812.2267312505</v>
       </c>
       <c r="N16" s="43">
-        <f>SUM(N12:N14)</f>
+        <f t="shared" si="15"/>
         <v>2571370.3073309381</v>
       </c>
       <c r="O16" s="43">
@@ -1472,39 +1472,39 @@
         <v>2699938.8226974849</v>
       </c>
       <c r="P16" s="43">
-        <f t="shared" ref="P16:X16" si="15">O16*1.05</f>
+        <f t="shared" ref="P16:X16" si="16">O16*1.05</f>
         <v>2834935.7638323591</v>
       </c>
       <c r="Q16" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2976682.552023977</v>
       </c>
       <c r="R16" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3125516.6796251759</v>
       </c>
       <c r="S16" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3281792.5136064347</v>
       </c>
       <c r="T16" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3445882.1392867565</v>
       </c>
       <c r="U16" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3618176.2462510946</v>
       </c>
       <c r="V16" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3799085.0585636497</v>
       </c>
       <c r="W16" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3989039.3114918321</v>
       </c>
       <c r="X16" s="43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4188491.277066424</v>
       </c>
     </row>
@@ -1544,59 +1544,59 @@
         <v>889847.33298534458</v>
       </c>
       <c r="K17" s="41">
-        <f t="shared" ref="K17:S17" si="16">K16-K18</f>
+        <f t="shared" ref="K17:S17" si="17">K16-K18</f>
         <v>980049.51197525812</v>
       </c>
       <c r="L17" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1079550.5987148746</v>
       </c>
       <c r="M17" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1189303.0728573697</v>
       </c>
       <c r="N17" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1310361.8932728486</v>
       </c>
       <c r="O17" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1375879.9879364909</v>
       </c>
       <c r="P17" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1444673.9873333154</v>
       </c>
       <c r="Q17" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1516907.6866999811</v>
       </c>
       <c r="R17" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1592753.0710349802</v>
       </c>
       <c r="S17" s="41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1672390.7245867292</v>
       </c>
       <c r="T17" s="41">
-        <f t="shared" ref="T17:X17" si="17">T16-T18</f>
+        <f t="shared" ref="T17:X17" si="18">T16-T18</f>
         <v>1756010.2608160656</v>
       </c>
       <c r="U17" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1843810.773856869</v>
       </c>
       <c r="V17" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1936001.3125497126</v>
       </c>
       <c r="W17" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2032801.3781771981</v>
       </c>
       <c r="X17" s="41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2134441.4470860586</v>
       </c>
     </row>
@@ -1605,95 +1605,95 @@
         <v>13</v>
       </c>
       <c r="B18" s="26">
-        <f t="shared" ref="B18:I18" si="18">B16-B17</f>
+        <f t="shared" ref="B18:I18" si="19">B16-B17</f>
         <v>140354</v>
       </c>
       <c r="C18" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>163220</v>
       </c>
       <c r="D18" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>214584</v>
       </c>
       <c r="E18" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>220964</v>
       </c>
       <c r="F18" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>198898</v>
       </c>
       <c r="G18" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>403266</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>501189</v>
       </c>
       <c r="I18" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>641702</v>
       </c>
       <c r="J18" s="41">
-        <f>J16*I32</f>
+        <f t="shared" ref="J18:X18" si="20">J16*I32</f>
         <v>856332.11701465538</v>
       </c>
       <c r="K18" s="41">
-        <f>K16*J32</f>
+        <f t="shared" si="20"/>
         <v>943136.92052474199</v>
       </c>
       <c r="L18" s="41">
-        <f>L16*K32</f>
+        <f t="shared" si="20"/>
         <v>1038890.397660126</v>
       </c>
       <c r="M18" s="41">
-        <f>M16*L32</f>
+        <f t="shared" si="20"/>
         <v>1144509.1538738809</v>
       </c>
       <c r="N18" s="41">
-        <f>N16*M32</f>
+        <f t="shared" si="20"/>
         <v>1261008.4140580895</v>
       </c>
       <c r="O18" s="41">
-        <f>O16*N32</f>
+        <f t="shared" si="20"/>
         <v>1324058.834760994</v>
       </c>
       <c r="P18" s="41">
-        <f>P16*O32</f>
+        <f t="shared" si="20"/>
         <v>1390261.7764990437</v>
       </c>
       <c r="Q18" s="41">
-        <f>Q16*P32</f>
+        <f t="shared" si="20"/>
         <v>1459774.8653239959</v>
       </c>
       <c r="R18" s="41">
-        <f>R16*Q32</f>
+        <f t="shared" si="20"/>
         <v>1532763.6085901957</v>
       </c>
       <c r="S18" s="41">
-        <f>S16*R32</f>
+        <f t="shared" si="20"/>
         <v>1609401.7890197055</v>
       </c>
       <c r="T18" s="41">
-        <f>T16*S32</f>
+        <f t="shared" si="20"/>
         <v>1689871.8784706909</v>
       </c>
       <c r="U18" s="41">
-        <f>U16*T32</f>
+        <f t="shared" si="20"/>
         <v>1774365.4723942257</v>
       </c>
       <c r="V18" s="41">
-        <f>V16*U32</f>
+        <f t="shared" si="20"/>
         <v>1863083.7460139371</v>
       </c>
       <c r="W18" s="41">
-        <f>W16*V32</f>
+        <f t="shared" si="20"/>
         <v>1956237.933314634</v>
       </c>
       <c r="X18" s="41">
-        <f>X16*W32</f>
+        <f t="shared" si="20"/>
         <v>2054049.8299803657</v>
       </c>
     </row>
@@ -1733,59 +1733,59 @@
         <v>332730.64999999997</v>
       </c>
       <c r="K19" s="41">
-        <f t="shared" ref="K19:N19" si="19">J19*1.15</f>
+        <f t="shared" ref="K19:N19" si="21">J19*1.15</f>
         <v>382640.24749999994</v>
       </c>
       <c r="L19" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>440036.28462499991</v>
       </c>
       <c r="M19" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>506041.72731874988</v>
       </c>
       <c r="N19" s="41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>581947.98641656234</v>
       </c>
       <c r="O19" s="41">
-        <f t="shared" ref="O19" si="20">N19*0.98</f>
+        <f t="shared" ref="O19" si="22">N19*0.98</f>
         <v>570309.02668823104</v>
       </c>
       <c r="P19" s="41">
-        <f t="shared" ref="P19" si="21">O19*0.98</f>
+        <f t="shared" ref="P19" si="23">O19*0.98</f>
         <v>558902.84615446639</v>
       </c>
       <c r="Q19" s="41">
-        <f t="shared" ref="Q19" si="22">P19*0.98</f>
+        <f t="shared" ref="Q19" si="24">P19*0.98</f>
         <v>547724.78923137707</v>
       </c>
       <c r="R19" s="41">
-        <f t="shared" ref="R19" si="23">Q19*0.98</f>
+        <f t="shared" ref="R19" si="25">Q19*0.98</f>
         <v>536770.29344674957</v>
       </c>
       <c r="S19" s="41">
-        <f t="shared" ref="S19" si="24">R19*0.98</f>
+        <f t="shared" ref="S19" si="26">R19*0.98</f>
         <v>526034.88757781452</v>
       </c>
       <c r="T19" s="41">
-        <f t="shared" ref="T19" si="25">S19*0.98</f>
+        <f t="shared" ref="T19" si="27">S19*0.98</f>
         <v>515514.18982625823</v>
       </c>
       <c r="U19" s="41">
-        <f t="shared" ref="U19" si="26">T19*0.98</f>
+        <f t="shared" ref="U19" si="28">T19*0.98</f>
         <v>505203.90602973307</v>
       </c>
       <c r="V19" s="41">
-        <f t="shared" ref="V19" si="27">U19*0.98</f>
+        <f t="shared" ref="V19" si="29">U19*0.98</f>
         <v>495099.8279091384</v>
       </c>
       <c r="W19" s="41">
-        <f t="shared" ref="W19" si="28">V19*0.98</f>
+        <f t="shared" ref="W19" si="30">V19*0.98</f>
         <v>485197.83135095565</v>
       </c>
       <c r="X19" s="41">
-        <f t="shared" ref="X19" si="29">W19*0.98</f>
+        <f t="shared" ref="X19" si="31">W19*0.98</f>
         <v>475493.87472393655</v>
       </c>
     </row>
@@ -1794,95 +1794,95 @@
         <v>14</v>
       </c>
       <c r="B20" s="26">
-        <f t="shared" ref="B20:X20" si="30">SUM(B19:B19)</f>
+        <f t="shared" ref="B20:X20" si="32">SUM(B19:B19)</f>
         <v>176764</v>
       </c>
       <c r="C20" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>209645</v>
       </c>
       <c r="D20" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>189814</v>
       </c>
       <c r="E20" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>188083</v>
       </c>
       <c r="F20" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>169535</v>
       </c>
       <c r="G20" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>225983</v>
       </c>
       <c r="H20" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>251488</v>
       </c>
       <c r="I20" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>289331</v>
       </c>
       <c r="J20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>332730.64999999997</v>
       </c>
       <c r="K20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>382640.24749999994</v>
       </c>
       <c r="L20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>440036.28462499991</v>
       </c>
       <c r="M20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>506041.72731874988</v>
       </c>
       <c r="N20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>581947.98641656234</v>
       </c>
       <c r="O20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>570309.02668823104</v>
       </c>
       <c r="P20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>558902.84615446639</v>
       </c>
       <c r="Q20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>547724.78923137707</v>
       </c>
       <c r="R20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>536770.29344674957</v>
       </c>
       <c r="S20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>526034.88757781452</v>
       </c>
       <c r="T20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>515514.18982625823</v>
       </c>
       <c r="U20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>505203.90602973307</v>
       </c>
       <c r="V20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>495099.8279091384</v>
       </c>
       <c r="W20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>485197.83135095565</v>
       </c>
       <c r="X20" s="41">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>475493.87472393655</v>
       </c>
     </row>
@@ -1891,95 +1891,95 @@
         <v>15</v>
       </c>
       <c r="B21" s="26">
-        <f t="shared" ref="B21:X21" si="31">B18-B20</f>
+        <f t="shared" ref="B21:X21" si="33">B18-B20</f>
         <v>-36410</v>
       </c>
       <c r="C21" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-46425</v>
       </c>
       <c r="D21" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>24770</v>
       </c>
       <c r="E21" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>32881</v>
       </c>
       <c r="F21" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>29363</v>
       </c>
       <c r="G21" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>177283</v>
       </c>
       <c r="H21" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>249701</v>
       </c>
       <c r="I21" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>352371</v>
       </c>
       <c r="J21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>523601.46701465541</v>
       </c>
       <c r="K21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>560496.67302474205</v>
       </c>
       <c r="L21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>598854.11303512612</v>
       </c>
       <c r="M21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>638467.42655513098</v>
       </c>
       <c r="N21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>679060.42764152715</v>
       </c>
       <c r="O21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>753749.80807276291</v>
       </c>
       <c r="P21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>831358.9303445773</v>
       </c>
       <c r="Q21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>912050.07609261887</v>
       </c>
       <c r="R21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>995993.31514344609</v>
       </c>
       <c r="S21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1083366.901441891</v>
       </c>
       <c r="T21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1174357.6886444327</v>
       </c>
       <c r="U21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1269161.5663644925</v>
       </c>
       <c r="V21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1367983.9181047985</v>
       </c>
       <c r="W21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1471040.1019636784</v>
       </c>
       <c r="X21" s="41">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1578555.955256429</v>
       </c>
     </row>
@@ -2020,63 +2020,63 @@
         <v>8904</v>
       </c>
       <c r="J22" s="41">
-        <f t="shared" ref="J22:X22" si="32">I36*$F$3</f>
+        <f t="shared" ref="J22:X22" si="34">I36*$F$3</f>
         <v>27128.400000000001</v>
       </c>
       <c r="K22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>34838.61813820518</v>
       </c>
       <c r="L22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>43173.312214486439</v>
       </c>
       <c r="M22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>52161.696167981019</v>
       </c>
       <c r="N22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>61830.50388610459</v>
       </c>
       <c r="O22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>72202.976927491443</v>
       </c>
       <c r="P22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>83766.315917494998</v>
       </c>
       <c r="Q22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>96578.069365164003</v>
       </c>
       <c r="R22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>110698.86340157296</v>
       </c>
       <c r="S22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>126192.55390120324</v>
       </c>
       <c r="T22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>143126.38627600655</v>
       </c>
       <c r="U22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>161571.16332489272</v>
       </c>
       <c r="V22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>181601.42154054411</v>
       </c>
       <c r="W22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>203295.61629557889</v>
       </c>
       <c r="X22" s="41">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>226736.31635120852</v>
       </c>
     </row>
@@ -2085,95 +2085,95 @@
         <v>17</v>
       </c>
       <c r="B23" s="26">
-        <f t="shared" ref="B23:I23" si="33">B21+B22</f>
+        <f t="shared" ref="B23:I23" si="35">B21+B22</f>
         <v>10197</v>
       </c>
       <c r="C23" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>10930</v>
       </c>
       <c r="D23" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>72091</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>27715</v>
       </c>
       <c r="F23" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>114731</v>
       </c>
       <c r="G23" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>200815</v>
       </c>
       <c r="H23" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>271771</v>
       </c>
       <c r="I23" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>361275</v>
       </c>
       <c r="J23" s="41">
-        <f t="shared" ref="J23:S23" si="34">J21+J22</f>
+        <f t="shared" ref="J23:S23" si="36">J21+J22</f>
         <v>550729.86701465538</v>
       </c>
       <c r="K23" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>595335.29116294719</v>
       </c>
       <c r="L23" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>642027.42524961254</v>
       </c>
       <c r="M23" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>690629.122723112</v>
       </c>
       <c r="N23" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>740890.93152763171</v>
       </c>
       <c r="O23" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>825952.7850002544</v>
       </c>
       <c r="P23" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>915125.24626207235</v>
       </c>
       <c r="Q23" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1008628.1454577829</v>
       </c>
       <c r="R23" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1106692.1785450191</v>
       </c>
       <c r="S23" s="41">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1209559.4553430942</v>
       </c>
       <c r="T23" s="41">
-        <f t="shared" ref="T23:X23" si="35">T21+T22</f>
+        <f t="shared" ref="T23:X23" si="37">T21+T22</f>
         <v>1317484.0749204392</v>
       </c>
       <c r="U23" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1430732.7296893853</v>
       </c>
       <c r="V23" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1549585.3396453427</v>
       </c>
       <c r="W23" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1674335.7182592573</v>
       </c>
       <c r="X23" s="41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1805292.2716076376</v>
       </c>
     </row>
@@ -2213,59 +2213,59 @@
         <v>165218.9601043966</v>
       </c>
       <c r="K24" s="41">
-        <f t="shared" ref="K24:X24" si="36">K23*0.3</f>
+        <f t="shared" ref="K24:X24" si="38">K23*0.3</f>
         <v>178600.58734888415</v>
       </c>
       <c r="L24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>192608.22757488376</v>
       </c>
       <c r="M24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>207188.73681693358</v>
       </c>
       <c r="N24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>222267.2794582895</v>
       </c>
       <c r="O24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>247785.8355000763</v>
       </c>
       <c r="P24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>274537.57387862168</v>
       </c>
       <c r="Q24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>302588.44363733486</v>
       </c>
       <c r="R24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>332007.65356350574</v>
       </c>
       <c r="S24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>362867.83660292823</v>
       </c>
       <c r="T24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>395245.22247613175</v>
       </c>
       <c r="U24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>429219.81890681555</v>
       </c>
       <c r="V24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>464875.60189360281</v>
       </c>
       <c r="W24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>502300.71547777718</v>
       </c>
       <c r="X24" s="41">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>541587.68148229131</v>
       </c>
     </row>
@@ -2274,1007 +2274,1007 @@
         <v>47</v>
       </c>
       <c r="B25" s="25">
-        <f t="shared" ref="B25:C25" si="37">B23-B24</f>
+        <f t="shared" ref="B25:C25" si="39">B23-B24</f>
         <v>7168</v>
       </c>
       <c r="C25" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-23202</v>
       </c>
       <c r="D25" s="25">
-        <f t="shared" ref="D25" si="38">D23-D24</f>
+        <f t="shared" ref="D25" si="40">D23-D24</f>
         <v>41863</v>
       </c>
       <c r="E25" s="25">
-        <f t="shared" ref="E25:F25" si="39">E23-E24</f>
+        <f t="shared" ref="E25:F25" si="41">E23-E24</f>
         <v>16518</v>
       </c>
       <c r="F25" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>102584</v>
       </c>
       <c r="G25" s="25">
-        <f t="shared" ref="G25:J25" si="40">G23-G24</f>
+        <f t="shared" ref="G25:J25" si="42">G23-G24</f>
         <v>140701</v>
       </c>
       <c r="H25" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>194567</v>
       </c>
       <c r="I25" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>258686</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>385510.90691025881</v>
       </c>
       <c r="K25" s="25">
-        <f t="shared" ref="K25:S25" si="41">K23-K24</f>
+        <f t="shared" ref="K25:S25" si="43">K23-K24</f>
         <v>416734.70381406305</v>
       </c>
       <c r="L25" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>449419.19767472881</v>
       </c>
       <c r="M25" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>483440.38590617839</v>
       </c>
       <c r="N25" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>518623.65206934221</v>
       </c>
       <c r="O25" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>578166.9495001781</v>
       </c>
       <c r="P25" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>640587.67238345067</v>
       </c>
       <c r="Q25" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>706039.70182044804</v>
       </c>
       <c r="R25" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>774684.52498151339</v>
       </c>
       <c r="S25" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>846691.61874016596</v>
       </c>
       <c r="T25" s="25">
-        <f t="shared" ref="T25:X25" si="42">T23-T24</f>
+        <f t="shared" ref="T25:X25" si="44">T23-T24</f>
         <v>922238.85244430741</v>
       </c>
       <c r="U25" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1001512.9107825698</v>
       </c>
       <c r="V25" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1084709.7377517398</v>
       </c>
       <c r="W25" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1172035.0027814801</v>
       </c>
       <c r="X25" s="25">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1263704.5901253463</v>
       </c>
       <c r="Y25" s="15">
-        <f t="shared" ref="Y25:CJ25" si="43">X25*($F$2+1)</f>
+        <f t="shared" ref="Y25:CJ25" si="45">X25*($F$2+1)</f>
         <v>1238430.4983228394</v>
       </c>
       <c r="Z25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1213661.8883563825</v>
       </c>
       <c r="AA25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1189388.6505892549</v>
       </c>
       <c r="AB25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1165600.8775774697</v>
       </c>
       <c r="AC25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1142288.8600259202</v>
       </c>
       <c r="AD25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1119443.0828254018</v>
       </c>
       <c r="AE25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1097054.2211688939</v>
       </c>
       <c r="AF25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1075113.136745516</v>
       </c>
       <c r="AG25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1053610.8740106057</v>
       </c>
       <c r="AH25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1032538.6565303936</v>
       </c>
       <c r="AI25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1011887.8833997857</v>
       </c>
       <c r="AJ25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>991650.12573178997</v>
       </c>
       <c r="AK25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>971817.12321715418</v>
       </c>
       <c r="AL25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>952380.78075281112</v>
       </c>
       <c r="AM25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>933333.16513775487</v>
       </c>
       <c r="AN25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>914666.50183499977</v>
       </c>
       <c r="AO25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>896373.17179829977</v>
       </c>
       <c r="AP25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>878445.70836233371</v>
       </c>
       <c r="AQ25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>860876.79419508704</v>
       </c>
       <c r="AR25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>843659.25831118529</v>
       </c>
       <c r="AS25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>826786.07314496161</v>
       </c>
       <c r="AT25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>810250.35168206238</v>
       </c>
       <c r="AU25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>794045.34464842116</v>
       </c>
       <c r="AV25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>778164.4377554527</v>
       </c>
       <c r="AW25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>762601.14900034363</v>
       </c>
       <c r="AX25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>747349.12602033676</v>
       </c>
       <c r="AY25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>732402.14349993004</v>
       </c>
       <c r="AZ25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>717754.10062993143</v>
       </c>
       <c r="BA25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>703399.0186173328</v>
       </c>
       <c r="BB25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>689331.03824498609</v>
       </c>
       <c r="BC25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>675544.41748008633</v>
       </c>
       <c r="BD25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>662033.52913048456</v>
       </c>
       <c r="BE25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>648792.85854787484</v>
       </c>
       <c r="BF25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>635817.00137691735</v>
       </c>
       <c r="BG25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>623100.66134937899</v>
       </c>
       <c r="BH25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>610638.64812239143</v>
       </c>
       <c r="BI25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>598425.87515994359</v>
       </c>
       <c r="BJ25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>586457.35765674466</v>
       </c>
       <c r="BK25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>574728.21050360973</v>
       </c>
       <c r="BL25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>563233.64629353757</v>
       </c>
       <c r="BM25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>551968.97336766683</v>
       </c>
       <c r="BN25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>540929.59390031348</v>
       </c>
       <c r="BO25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>530111.00202230725</v>
       </c>
       <c r="BP25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>519508.7819818611</v>
       </c>
       <c r="BQ25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>509118.60634222388</v>
       </c>
       <c r="BR25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>498936.2342153794</v>
       </c>
       <c r="BS25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>488957.50953107182</v>
       </c>
       <c r="BT25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>479178.35934045038</v>
       </c>
       <c r="BU25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>469594.79215364135</v>
       </c>
       <c r="BV25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>460202.8963105685</v>
       </c>
       <c r="BW25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>450998.83838435711</v>
       </c>
       <c r="BX25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>441978.86161666998</v>
       </c>
       <c r="BY25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>433139.28438433656</v>
       </c>
       <c r="BZ25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>424476.4986966498</v>
       </c>
       <c r="CA25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>415986.96872271679</v>
       </c>
       <c r="CB25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>407667.22934826242</v>
       </c>
       <c r="CC25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>399513.88476129714</v>
       </c>
       <c r="CD25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>391523.60706607118</v>
       </c>
       <c r="CE25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>383693.13492474973</v>
       </c>
       <c r="CF25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>376019.27222625475</v>
       </c>
       <c r="CG25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>368498.88678172964</v>
       </c>
       <c r="CH25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>361128.90904609504</v>
       </c>
       <c r="CI25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>353906.33086517313</v>
       </c>
       <c r="CJ25" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>346828.20424786967</v>
       </c>
       <c r="CK25" s="15">
-        <f t="shared" ref="CK25:EV25" si="44">CJ25*($F$2+1)</f>
+        <f t="shared" ref="CK25:EV25" si="46">CJ25*($F$2+1)</f>
         <v>339891.64016291226</v>
       </c>
       <c r="CL25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>333093.80735965399</v>
       </c>
       <c r="CM25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>326431.93121246091</v>
       </c>
       <c r="CN25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>319903.29258821171</v>
       </c>
       <c r="CO25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>313505.22673644748</v>
       </c>
       <c r="CP25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>307235.12220171851</v>
       </c>
       <c r="CQ25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>301090.41975768411</v>
       </c>
       <c r="CR25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>295068.61136253044</v>
       </c>
       <c r="CS25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>289167.23913527984</v>
       </c>
       <c r="CT25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>283383.89435257425</v>
       </c>
       <c r="CU25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>277716.21646552277</v>
       </c>
       <c r="CV25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>272161.89213621232</v>
       </c>
       <c r="CW25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>266718.65429348807</v>
       </c>
       <c r="CX25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>261384.2812076183</v>
       </c>
       <c r="CY25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>256156.59558346594</v>
       </c>
       <c r="CZ25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>251033.46367179661</v>
       </c>
       <c r="DA25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>246012.79439836068</v>
       </c>
       <c r="DB25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>241092.53851039347</v>
       </c>
       <c r="DC25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>236270.68774018559</v>
       </c>
       <c r="DD25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>231545.27398538188</v>
       </c>
       <c r="DE25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>226914.36850567424</v>
       </c>
       <c r="DF25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>222376.08113556076</v>
       </c>
       <c r="DG25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>217928.55951284955</v>
       </c>
       <c r="DH25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>213569.98832259254</v>
       </c>
       <c r="DI25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>209298.58855614069</v>
       </c>
       <c r="DJ25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>205112.61678501786</v>
       </c>
       <c r="DK25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>201010.36444931751</v>
       </c>
       <c r="DL25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>196990.15716033115</v>
       </c>
       <c r="DM25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>193050.35401712451</v>
       </c>
       <c r="DN25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>189189.34693678201</v>
       </c>
       <c r="DO25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>185405.55999804637</v>
       </c>
       <c r="DP25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>181697.44879808545</v>
       </c>
       <c r="DQ25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>178063.49982212373</v>
       </c>
       <c r="DR25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>174502.22982568125</v>
       </c>
       <c r="DS25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>171012.18522916763</v>
       </c>
       <c r="DT25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>167591.94152458428</v>
       </c>
       <c r="DU25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>164240.10269409258</v>
       </c>
       <c r="DV25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>160955.30064021071</v>
       </c>
       <c r="DW25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>157736.19462740648</v>
       </c>
       <c r="DX25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>154581.47073485836</v>
       </c>
       <c r="DY25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>151489.84132016118</v>
       </c>
       <c r="DZ25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>148460.04449375795</v>
       </c>
       <c r="EA25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>145490.84360388279</v>
       </c>
       <c r="EB25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>142581.02673180515</v>
       </c>
       <c r="EC25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>139729.40619716904</v>
       </c>
       <c r="ED25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>136934.81807322564</v>
       </c>
       <c r="EE25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>134196.12171176114</v>
       </c>
       <c r="EF25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>131512.19927752591</v>
       </c>
       <c r="EG25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>128881.95529197539</v>
       </c>
       <c r="EH25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>126304.31618613588</v>
       </c>
       <c r="EI25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>123778.22986241317</v>
       </c>
       <c r="EJ25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>121302.66526516491</v>
       </c>
       <c r="EK25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>118876.61195986161</v>
       </c>
       <c r="EL25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>116499.07972066438</v>
       </c>
       <c r="EM25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>114169.09812625109</v>
       </c>
       <c r="EN25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>111885.71616372607</v>
       </c>
       <c r="EO25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>109648.00184045154</v>
       </c>
       <c r="EP25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>107455.04180364251</v>
       </c>
       <c r="EQ25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>105305.94096756965</v>
       </c>
       <c r="ER25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>103199.82214821826</v>
       </c>
       <c r="ES25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>101135.82570525388</v>
       </c>
       <c r="ET25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>99113.109191148804</v>
       </c>
       <c r="EU25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>97130.847007325821</v>
       </c>
       <c r="EV25" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>95188.230067179305</v>
       </c>
       <c r="EW25" s="15">
-        <f t="shared" ref="EW25:HH25" si="45">EV25*($F$2+1)</f>
+        <f t="shared" ref="EW25:HH25" si="47">EV25*($F$2+1)</f>
         <v>93284.465465835718</v>
       </c>
       <c r="EX25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>91418.776156519001</v>
       </c>
       <c r="EY25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>89590.400633388621</v>
       </c>
       <c r="EZ25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>87798.592620720854</v>
       </c>
       <c r="FA25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>86042.620768306442</v>
       </c>
       <c r="FB25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>84321.768352940315</v>
       </c>
       <c r="FC25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>82635.332985881512</v>
       </c>
       <c r="FD25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>80982.626326163881</v>
       </c>
       <c r="FE25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>79362.973799640604</v>
       </c>
       <c r="FF25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>77775.714323647786</v>
       </c>
       <c r="FG25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>76220.200037174829</v>
       </c>
       <c r="FH25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>74695.796036431333</v>
       </c>
       <c r="FI25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>73201.880115702705</v>
       </c>
       <c r="FJ25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>71737.842513388649</v>
       </c>
       <c r="FK25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>70303.085663120874</v>
       </c>
       <c r="FL25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>68897.023949858456</v>
       </c>
       <c r="FM25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>67519.083470861282</v>
       </c>
       <c r="FN25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>66168.701801444055</v>
       </c>
       <c r="FO25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>64845.327765415175</v>
       </c>
       <c r="FP25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>63548.42121010687</v>
       </c>
       <c r="FQ25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>62277.45278590473</v>
       </c>
       <c r="FR25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>61031.903730186634</v>
       </c>
       <c r="FS25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>59811.265655582902</v>
       </c>
       <c r="FT25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>58615.040342471242</v>
       </c>
       <c r="FU25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>57442.739535621819</v>
       </c>
       <c r="FV25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>56293.884744909381</v>
       </c>
       <c r="FW25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>55168.007050011191</v>
       </c>
       <c r="FX25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>54064.646909010968</v>
       </c>
       <c r="FY25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>52983.353970830751</v>
       </c>
       <c r="FZ25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>51923.686891414138</v>
       </c>
       <c r="GA25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>50885.213153585857</v>
       </c>
       <c r="GB25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>49867.508890514138</v>
       </c>
       <c r="GC25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>48870.158712703851</v>
       </c>
       <c r="GD25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>47892.755538449775</v>
       </c>
       <c r="GE25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>46934.900427680783</v>
       </c>
       <c r="GF25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>45996.202419127163</v>
       </c>
       <c r="GG25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>45076.278370744621</v>
       </c>
       <c r="GH25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>44174.752803329728</v>
       </c>
       <c r="GI25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>43291.257747263131</v>
       </c>
       <c r="GJ25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>42425.432592317869</v>
       </c>
       <c r="GK25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>41576.923940471512</v>
       </c>
       <c r="GL25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>40745.385461662081</v>
       </c>
       <c r="GM25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>39930.477752428837</v>
       </c>
       <c r="GN25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>39131.86819738026</v>
       </c>
       <c r="GO25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>38349.230833432652</v>
       </c>
       <c r="GP25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>37582.246216763997</v>
       </c>
       <c r="GQ25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>36830.601292428713</v>
       </c>
       <c r="GR25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>36093.989266580138</v>
       </c>
       <c r="GS25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>35372.109481248532</v>
       </c>
       <c r="GT25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>34664.667291623562</v>
       </c>
       <c r="GU25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>33971.373945791092</v>
       </c>
       <c r="GV25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>33291.94646687527</v>
       </c>
       <c r="GW25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>32626.107537537762</v>
       </c>
       <c r="GX25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>31973.585386787006</v>
       </c>
       <c r="GY25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>31334.113679051265</v>
       </c>
       <c r="GZ25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>30707.431405470237</v>
       </c>
       <c r="HA25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>30093.282777360833</v>
       </c>
       <c r="HB25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>29491.417121813614</v>
       </c>
       <c r="HC25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>28901.58877937734</v>
       </c>
       <c r="HD25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>28323.557003789792</v>
       </c>
       <c r="HE25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>27757.085863713997</v>
       </c>
       <c r="HF25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>27201.944146439717</v>
       </c>
       <c r="HG25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>26657.905263510922</v>
       </c>
       <c r="HH25" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>26124.747158240702</v>
       </c>
       <c r="HI25" s="15">
-        <f t="shared" ref="HI25:IR25" si="46">HH25*($F$2+1)</f>
+        <f t="shared" ref="HI25:IR25" si="48">HH25*($F$2+1)</f>
         <v>25602.252215075889</v>
       </c>
       <c r="HJ25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>25090.207170774371</v>
       </c>
       <c r="HK25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>24588.403027358883</v>
       </c>
       <c r="HL25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>24096.634966811704</v>
       </c>
       <c r="HM25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>23614.70226747547</v>
       </c>
       <c r="HN25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>23142.40822212596</v>
       </c>
       <c r="HO25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>22679.56005768344</v>
       </c>
       <c r="HP25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>22225.968856529773</v>
       </c>
       <c r="HQ25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>21781.449479399176</v>
       </c>
       <c r="HR25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>21345.820489811191</v>
       </c>
       <c r="HS25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20918.904080014967</v>
       </c>
       <c r="HT25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20500.525998414669</v>
       </c>
       <c r="HU25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>20090.515478446374</v>
       </c>
       <c r="HV25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>19688.705168877445</v>
       </c>
       <c r="HW25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>19294.931065499895</v>
       </c>
       <c r="HX25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>18909.032444189896</v>
       </c>
       <c r="HY25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>18530.851795306098</v>
       </c>
       <c r="HZ25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>18160.234759399977</v>
       </c>
       <c r="IA25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>17797.030064211976</v>
       </c>
       <c r="IB25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>17441.089462927735</v>
       </c>
       <c r="IC25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>17092.267673669179</v>
       </c>
       <c r="ID25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>16750.422320195794</v>
       </c>
       <c r="IE25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>16415.413873791877</v>
       </c>
       <c r="IF25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>16087.105596316038</v>
       </c>
       <c r="IG25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>15765.363484389716</v>
       </c>
       <c r="IH25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>15450.056214701921</v>
       </c>
       <c r="II25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>15141.055090407883</v>
       </c>
       <c r="IJ25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>14838.233988599724</v>
       </c>
       <c r="IK25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>14541.469308827729</v>
       </c>
       <c r="IL25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>14250.639922651175</v>
       </c>
       <c r="IM25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>13965.62712419815</v>
       </c>
       <c r="IN25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>13686.314581714187</v>
       </c>
       <c r="IO25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>13412.588290079902</v>
       </c>
       <c r="IP25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>13144.336524278304</v>
       </c>
       <c r="IQ25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>12881.449793792737</v>
       </c>
       <c r="IR25" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>12623.820797916882</v>
       </c>
     </row>
@@ -3283,95 +3283,95 @@
         <v>19</v>
       </c>
       <c r="B26" s="29" t="e">
-        <f t="shared" ref="B26:C26" si="47">B25/B27</f>
+        <f t="shared" ref="B26:C26" si="49">B25/B27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C26" s="29" t="e">
-        <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="29" t="e">
-        <f t="shared" ref="D26" si="48">D25/D27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="29" t="e">
-        <f t="shared" ref="E26:F26" si="49">E25/E27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="29" t="e">
         <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="D26" s="29" t="e">
+        <f t="shared" ref="D26" si="50">D25/D27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="29" t="e">
+        <f t="shared" ref="E26:F26" si="51">E25/E27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="29" t="e">
+        <f t="shared" si="51"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G26" s="29" t="e">
-        <f t="shared" ref="G26:I26" si="50">G25/G27</f>
+        <f t="shared" ref="G26:I26" si="52">G25/G27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H26" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1477.6978635821642</v>
       </c>
       <c r="I26" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1964.6689805497117</v>
       </c>
       <c r="J26" s="44">
-        <f t="shared" ref="J26:S26" si="51">J25/J27</f>
+        <f t="shared" ref="J26:S26" si="53">J25/J27</f>
         <v>2927.8790520947132</v>
       </c>
       <c r="K26" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>3165.0176109339559</v>
       </c>
       <c r="L26" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>3413.2498741140948</v>
       </c>
       <c r="M26" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>3671.6340665318212</v>
       </c>
       <c r="N26" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>3938.84401088595</v>
       </c>
       <c r="O26" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>4391.0635722924762</v>
       </c>
       <c r="P26" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>4865.1366106179175</v>
       </c>
       <c r="Q26" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>5362.2318223761704</v>
       </c>
       <c r="R26" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>5883.5756706704942</v>
       </c>
       <c r="S26" s="44">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>6430.4552988187488</v>
       </c>
       <c r="T26" s="44">
-        <f t="shared" ref="T26:X26" si="52">T25/T27</f>
+        <f t="shared" ref="T26:X26" si="54">T25/T27</f>
         <v>7004.2215893210041</v>
       </c>
       <c r="U26" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>7606.2923754457743</v>
       </c>
       <c r="V26" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>8238.1558130747526</v>
       </c>
       <c r="W26" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>8901.373920827833</v>
       </c>
       <c r="X26" s="44">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>9597.5862968910387</v>
       </c>
     </row>
@@ -3394,63 +3394,63 @@
         <v>131.66900000000001</v>
       </c>
       <c r="J27" s="41">
-        <f t="shared" ref="J27:S27" si="53">I27</f>
+        <f t="shared" ref="J27:S27" si="55">I27</f>
         <v>131.66900000000001</v>
       </c>
       <c r="K27" s="41">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>131.66900000000001</v>
       </c>
       <c r="L27" s="41">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>131.66900000000001</v>
       </c>
       <c r="M27" s="41">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>131.66900000000001</v>
       </c>
       <c r="N27" s="41">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>131.66900000000001</v>
       </c>
       <c r="O27" s="41">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>131.66900000000001</v>
       </c>
       <c r="P27" s="41">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>131.66900000000001</v>
       </c>
       <c r="Q27" s="41">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>131.66900000000001</v>
       </c>
       <c r="R27" s="41">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>131.66900000000001</v>
       </c>
       <c r="S27" s="41">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>131.66900000000001</v>
       </c>
       <c r="T27" s="41">
-        <f t="shared" ref="T27" si="54">S27</f>
+        <f t="shared" ref="T27" si="56">S27</f>
         <v>131.66900000000001</v>
       </c>
       <c r="U27" s="41">
-        <f t="shared" ref="U27" si="55">T27</f>
+        <f t="shared" ref="U27" si="57">T27</f>
         <v>131.66900000000001</v>
       </c>
       <c r="V27" s="41">
-        <f t="shared" ref="V27" si="56">U27</f>
+        <f t="shared" ref="V27" si="58">U27</f>
         <v>131.66900000000001</v>
       </c>
       <c r="W27" s="41">
-        <f t="shared" ref="W27" si="57">V27</f>
+        <f t="shared" ref="W27" si="59">V27</f>
         <v>131.66900000000001</v>
       </c>
       <c r="X27" s="41">
-        <f t="shared" ref="X27" si="58">W27</f>
+        <f t="shared" ref="X27" si="60">W27</f>
         <v>131.66900000000001</v>
       </c>
     </row>
@@ -3486,31 +3486,31 @@
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="46">
-        <f t="shared" ref="C29" si="59">C16/B16-1</f>
+        <f t="shared" ref="C29" si="61">C16/B16-1</f>
         <v>-0.10024204387005797</v>
       </c>
       <c r="D29" s="46">
-        <f t="shared" ref="D29:E29" si="60">D16/C16-1</f>
+        <f t="shared" ref="D29:E29" si="62">D16/C16-1</f>
         <v>-3.8385520336664758E-2</v>
       </c>
       <c r="E29" s="46">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>-8.2436611008039562E-2</v>
       </c>
       <c r="F29" s="46">
-        <f t="shared" ref="F29" si="61">F16/E16-1</f>
+        <f t="shared" ref="F29" si="63">F16/E16-1</f>
         <v>-3.0454467963636267E-2</v>
       </c>
       <c r="G29" s="46">
-        <f t="shared" ref="G29" si="62">G16/F16-1</f>
+        <f t="shared" ref="G29" si="64">G16/F16-1</f>
         <v>1.1584354777701673</v>
       </c>
       <c r="H29" s="46">
-        <f t="shared" ref="H29" si="63">H16/G16-1</f>
+        <f t="shared" ref="H29" si="65">H16/G16-1</f>
         <v>0.13723760988178246</v>
       </c>
       <c r="I29" s="46">
-        <f t="shared" ref="I29:X29" si="64">I16/H16-1</f>
+        <f t="shared" ref="I29:X29" si="66">I16/H16-1</f>
         <v>8.992477670818344E-2</v>
       </c>
       <c r="J29" s="46">
@@ -3522,55 +3522,55 @@
         <v>0.10136815119431186</v>
       </c>
       <c r="L29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.10152659179338319</v>
       </c>
       <c r="M29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.10166496528569136</v>
       </c>
       <c r="N29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>0.10178971464744291</v>
       </c>
       <c r="O29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="P29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="R29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="T29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="V29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="W29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="X29" s="46">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -3580,91 +3580,91 @@
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="47">
-        <f t="shared" ref="C30" si="65">C19/B19-1</f>
+        <f t="shared" ref="C30" si="67">C19/B19-1</f>
         <v>0.18601638342648963</v>
       </c>
       <c r="D30" s="47">
-        <f t="shared" ref="D30:E30" si="66">D19/C19-1</f>
+        <f t="shared" ref="D30:E30" si="68">D19/C19-1</f>
         <v>-9.4593240954947699E-2</v>
       </c>
       <c r="E30" s="47">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-9.1194537810699305E-3</v>
       </c>
       <c r="F30" s="47">
-        <f t="shared" ref="F30" si="67">F19/E19-1</f>
+        <f t="shared" ref="F30" si="69">F19/E19-1</f>
         <v>-9.8616036537060747E-2</v>
       </c>
       <c r="G30" s="47">
-        <f t="shared" ref="G30" si="68">G19/F19-1</f>
+        <f t="shared" ref="G30" si="70">G19/F19-1</f>
         <v>0.33295779632524258</v>
       </c>
       <c r="H30" s="47">
-        <f t="shared" ref="H30" si="69">H19/G19-1</f>
+        <f t="shared" ref="H30" si="71">H19/G19-1</f>
         <v>0.11286247195585508</v>
       </c>
       <c r="I30" s="47">
-        <f t="shared" ref="I30:X30" si="70">I19/H19-1</f>
+        <f t="shared" ref="I30:X30" si="72">I19/H19-1</f>
         <v>0.15047636467743986</v>
       </c>
       <c r="J30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="K30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="L30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="M30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="N30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="O30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="P30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="Q30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="S30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000129E-2</v>
       </c>
       <c r="T30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="U30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="V30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="W30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="X30" s="47">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>-2.0000000000000018E-2</v>
       </c>
     </row>
@@ -3699,91 +3699,91 @@
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="47">
-        <f>C18/C16</f>
+        <f t="shared" ref="C32:X32" si="73">C18/C16</f>
         <v>0.28548640432654804</v>
       </c>
       <c r="D32" s="47">
-        <f>D18/D16</f>
+        <f t="shared" si="73"/>
         <v>0.3903088508130525</v>
       </c>
       <c r="E32" s="47">
-        <f>E18/E16</f>
+        <f t="shared" si="73"/>
         <v>0.43802259058236759</v>
       </c>
       <c r="F32" s="47">
-        <f>F18/F16</f>
+        <f t="shared" si="73"/>
         <v>0.4066653717580429</v>
       </c>
       <c r="G32" s="47">
-        <f>G18/G16</f>
+        <f t="shared" si="73"/>
         <v>0.38199643831464081</v>
       </c>
       <c r="H32" s="47">
-        <f>H18/H16</f>
+        <f t="shared" si="73"/>
         <v>0.41746303180435113</v>
       </c>
       <c r="I32" s="47">
-        <f>I18/I16</f>
+        <f t="shared" si="73"/>
         <v>0.49040327270754186</v>
       </c>
       <c r="J32" s="47">
-        <f>J18/J16</f>
+        <f t="shared" si="73"/>
         <v>0.4904032727075418</v>
       </c>
       <c r="K32" s="47">
-        <f>K18/K16</f>
+        <f t="shared" si="73"/>
         <v>0.4904032727075418</v>
       </c>
       <c r="L32" s="47">
-        <f>L18/L16</f>
+        <f t="shared" si="73"/>
         <v>0.4904032727075418</v>
       </c>
       <c r="M32" s="47">
-        <f>M18/M16</f>
+        <f t="shared" si="73"/>
         <v>0.4904032727075418</v>
       </c>
       <c r="N32" s="47">
-        <f>N18/N16</f>
+        <f t="shared" si="73"/>
         <v>0.49040327270754175</v>
       </c>
       <c r="O32" s="47">
-        <f>O18/O16</f>
+        <f t="shared" si="73"/>
         <v>0.49040327270754175</v>
       </c>
       <c r="P32" s="47">
-        <f>P18/P16</f>
+        <f t="shared" si="73"/>
         <v>0.4904032727075418</v>
       </c>
       <c r="Q32" s="47">
-        <f>Q18/Q16</f>
+        <f t="shared" si="73"/>
         <v>0.4904032727075418</v>
       </c>
       <c r="R32" s="47">
-        <f>R18/R16</f>
+        <f t="shared" si="73"/>
         <v>0.4904032727075418</v>
       </c>
       <c r="S32" s="47">
-        <f>S18/S16</f>
+        <f t="shared" si="73"/>
         <v>0.4904032727075418</v>
       </c>
       <c r="T32" s="47">
-        <f>T18/T16</f>
+        <f t="shared" si="73"/>
         <v>0.49040327270754186</v>
       </c>
       <c r="U32" s="47">
-        <f>U18/U16</f>
+        <f t="shared" si="73"/>
         <v>0.49040327270754186</v>
       </c>
       <c r="V32" s="47">
-        <f>V18/V16</f>
+        <f t="shared" si="73"/>
         <v>0.49040327270754186</v>
       </c>
       <c r="W32" s="47">
-        <f>W18/W16</f>
+        <f t="shared" si="73"/>
         <v>0.49040327270754186</v>
       </c>
       <c r="X32" s="47">
-        <f>X18/X16</f>
+        <f t="shared" si="73"/>
         <v>0.49040327270754186</v>
       </c>
     </row>
@@ -3793,91 +3793,91 @@
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="47">
-        <f>C21/C16</f>
+        <f t="shared" ref="C33:X33" si="74">C21/C16</f>
         <v>-8.1201484627251519E-2</v>
       </c>
       <c r="D33" s="47">
-        <f>D21/D16</f>
+        <f t="shared" si="74"/>
         <v>4.5054385390519841E-2</v>
       </c>
       <c r="E33" s="47">
-        <f>E21/E16</f>
+        <f t="shared" si="74"/>
         <v>6.5180847563127156E-2</v>
       </c>
       <c r="F33" s="47">
-        <f>F21/F16</f>
+        <f t="shared" si="74"/>
         <v>6.0035371451354035E-2</v>
       </c>
       <c r="G33" s="47">
-        <f>G21/G16</f>
+        <f t="shared" si="74"/>
         <v>0.16793251742952409</v>
       </c>
       <c r="H33" s="47">
-        <f>H21/H16</f>
+        <f t="shared" si="74"/>
         <v>0.20798727925907848</v>
       </c>
       <c r="I33" s="47">
-        <f>I21/I16</f>
+        <f t="shared" si="74"/>
         <v>0.26928993770820292</v>
       </c>
       <c r="J33" s="47">
-        <f>J21/J16</f>
+        <f t="shared" si="74"/>
         <v>0.29985547419805875</v>
       </c>
       <c r="K33" s="47">
-        <f>K21/K16</f>
+        <f t="shared" si="74"/>
         <v>0.29144167385589231</v>
       </c>
       <c r="L33" s="47">
-        <f>L21/L16</f>
+        <f t="shared" si="74"/>
         <v>0.28268623674667531</v>
       </c>
       <c r="M33" s="47">
-        <f>M21/M16</f>
+        <f t="shared" si="74"/>
         <v>0.27357274901647582</v>
       </c>
       <c r="N33" s="47">
-        <f>N21/N16</f>
+        <f t="shared" si="74"/>
         <v>0.26408503890145113</v>
       </c>
       <c r="O33" s="47">
-        <f>O21/O16</f>
+        <f t="shared" si="74"/>
         <v>0.27917292115519055</v>
       </c>
       <c r="P33" s="47">
-        <f>P21/P16</f>
+        <f t="shared" si="74"/>
         <v>0.29325494459201396</v>
       </c>
       <c r="Q33" s="47">
-        <f>Q21/Q16</f>
+        <f t="shared" si="74"/>
         <v>0.30639816646638252</v>
       </c>
       <c r="R33" s="47">
-        <f>R21/R16</f>
+        <f t="shared" si="74"/>
         <v>0.31866517354912643</v>
       </c>
       <c r="S33" s="47">
-        <f>S21/S16</f>
+        <f t="shared" si="74"/>
         <v>0.33011438015968747</v>
       </c>
       <c r="T33" s="47">
-        <f>T21/T16</f>
+        <f t="shared" si="74"/>
         <v>0.3408003063295445</v>
       </c>
       <c r="U33" s="47">
-        <f>U21/U16</f>
+        <f t="shared" si="74"/>
         <v>0.35077383742141099</v>
       </c>
       <c r="V33" s="47">
-        <f>V21/V16</f>
+        <f t="shared" si="74"/>
         <v>0.36008246644048636</v>
       </c>
       <c r="W33" s="47">
-        <f>W21/W16</f>
+        <f t="shared" si="74"/>
         <v>0.36877052019162343</v>
       </c>
       <c r="X33" s="47">
-        <f>X21/X16</f>
+        <f t="shared" si="74"/>
         <v>0.37687937035935126</v>
       </c>
     </row>
@@ -3887,91 +3887,91 @@
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="47">
-        <f>C24/C23</f>
+        <f t="shared" ref="C34:X34" si="75">C24/C23</f>
         <v>3.1227813357731016</v>
       </c>
       <c r="D34" s="47">
-        <f>D24/D23</f>
+        <f t="shared" si="75"/>
         <v>0.41930338044970938</v>
       </c>
       <c r="E34" s="47">
-        <f>E24/E23</f>
+        <f t="shared" si="75"/>
         <v>0.40400505141620063</v>
       </c>
       <c r="F34" s="47">
-        <f>F24/F23</f>
+        <f t="shared" si="75"/>
         <v>0.10587373944269639</v>
       </c>
       <c r="G34" s="47">
-        <f>G24/G23</f>
+        <f t="shared" si="75"/>
         <v>0.29935014814630378</v>
       </c>
       <c r="H34" s="47">
-        <f>H24/H23</f>
+        <f t="shared" si="75"/>
         <v>0.284077403402129</v>
       </c>
       <c r="I34" s="47">
-        <f>I24/I23</f>
+        <f t="shared" si="75"/>
         <v>0.28396373953359627</v>
       </c>
       <c r="J34" s="47">
-        <f>J24/J23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="K34" s="47">
-        <f>K24/K23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="L34" s="47">
-        <f>L24/L23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="M34" s="47">
-        <f>M24/M23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="N34" s="47">
-        <f>N24/N23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="O34" s="47">
-        <f>O24/O23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="P34" s="47">
-        <f>P24/P23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="Q34" s="47">
-        <f>Q24/Q23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="R34" s="47">
-        <f>R24/R23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="S34" s="47">
-        <f>S24/S23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="T34" s="47">
-        <f>T24/T23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="U34" s="47">
-        <f>U24/U23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="V34" s="47">
-        <f>V24/V23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="W34" s="47">
-        <f>W24/W23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
       <c r="X34" s="47">
-        <f>X24/X23</f>
+        <f t="shared" si="75"/>
         <v>0.3</v>
       </c>
     </row>
@@ -4022,63 +4022,63 @@
         <v>1356420</v>
       </c>
       <c r="J36" s="43">
-        <f>I36+J25</f>
+        <f t="shared" ref="J36:X36" si="76">I36+J25</f>
         <v>1741930.9069102588</v>
       </c>
       <c r="K36" s="43">
-        <f>J36+K25</f>
+        <f t="shared" si="76"/>
         <v>2158665.610724322</v>
       </c>
       <c r="L36" s="43">
-        <f>K36+L25</f>
+        <f t="shared" si="76"/>
         <v>2608084.808399051</v>
       </c>
       <c r="M36" s="43">
-        <f>L36+M25</f>
+        <f t="shared" si="76"/>
         <v>3091525.1943052295</v>
       </c>
       <c r="N36" s="43">
-        <f>M36+N25</f>
+        <f t="shared" si="76"/>
         <v>3610148.8463745718</v>
       </c>
       <c r="O36" s="43">
-        <f>N36+O25</f>
+        <f t="shared" si="76"/>
         <v>4188315.7958747498</v>
       </c>
       <c r="P36" s="43">
-        <f>O36+P25</f>
+        <f t="shared" si="76"/>
         <v>4828903.4682582002</v>
       </c>
       <c r="Q36" s="43">
-        <f>P36+Q25</f>
+        <f t="shared" si="76"/>
         <v>5534943.1700786483</v>
       </c>
       <c r="R36" s="43">
-        <f>Q36+R25</f>
+        <f t="shared" si="76"/>
         <v>6309627.6950601619</v>
       </c>
       <c r="S36" s="43">
-        <f>R36+S25</f>
+        <f t="shared" si="76"/>
         <v>7156319.3138003275</v>
       </c>
       <c r="T36" s="43">
-        <f>S36+T25</f>
+        <f t="shared" si="76"/>
         <v>8078558.1662446354</v>
       </c>
       <c r="U36" s="43">
-        <f>T36+U25</f>
+        <f t="shared" si="76"/>
         <v>9080071.0770272054</v>
       </c>
       <c r="V36" s="43">
-        <f>U36+V25</f>
+        <f t="shared" si="76"/>
         <v>10164780.814778944</v>
       </c>
       <c r="W36" s="43">
-        <f>V36+W25</f>
+        <f t="shared" si="76"/>
         <v>11336815.817560425</v>
       </c>
       <c r="X36" s="43">
-        <f>W36+X25</f>
+        <f t="shared" si="76"/>
         <v>12600520.407685772</v>
       </c>
     </row>
@@ -4598,39 +4598,39 @@
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="47">
-        <f>F12/E12-1</f>
+        <f t="shared" ref="F52:N52" si="77">F12/E12-1</f>
         <v>-6.8422418318927813E-2</v>
       </c>
       <c r="G52" s="47">
-        <f>G12/F12-1</f>
+        <f t="shared" si="77"/>
         <v>1.1908077844065716</v>
       </c>
       <c r="H52" s="47">
-        <f>H12/G12-1</f>
+        <f t="shared" si="77"/>
         <v>0.13598145532710904</v>
       </c>
       <c r="I52" s="47">
-        <f>I12/H12-1</f>
+        <f t="shared" si="77"/>
         <v>8.8113676707137323E-2</v>
       </c>
       <c r="J52" s="47">
-        <f>J12/I12-1</f>
+        <f t="shared" si="77"/>
         <v>0.3441885498045707</v>
       </c>
       <c r="K52" s="47">
-        <f>K12/J12-1</f>
+        <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L52" s="47">
-        <f>L12/K12-1</f>
+        <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M52" s="47">
-        <f>M12/L12-1</f>
+        <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N52" s="47">
-        <f>N12/M12-1</f>
+        <f t="shared" si="77"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O52" s="27"/>
@@ -4653,39 +4653,39 @@
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="47">
-        <f>F13/E13-1</f>
+        <f t="shared" ref="F53:N53" si="78">F13/E13-1</f>
         <v>3.2291594000697597</v>
       </c>
       <c r="G53" s="47">
-        <f>G13/F13-1</f>
+        <f t="shared" si="78"/>
         <v>0.62144329896907213</v>
       </c>
       <c r="H53" s="47">
-        <f>H13/G13-1</f>
+        <f t="shared" si="78"/>
         <v>0.17009155645981688</v>
       </c>
       <c r="I53" s="47">
-        <f>I13/H13-1</f>
+        <f t="shared" si="78"/>
         <v>0.11491479742653454</v>
       </c>
       <c r="J53" s="47">
-        <f>J13/I13-1</f>
+        <f t="shared" si="78"/>
         <v>0.14150989375182776</v>
       </c>
       <c r="K53" s="47">
-        <f>K13/J13-1</f>
+        <f t="shared" si="78"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="L53" s="47">
-        <f>L13/K13-1</f>
+        <f t="shared" si="78"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="M53" s="47">
-        <f>M13/L13-1</f>
+        <f t="shared" si="78"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="N53" s="47">
-        <f>N13/M13-1</f>
+        <f t="shared" si="78"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="O53" s="27"/>
@@ -4708,39 +4708,39 @@
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="47">
-        <f>F14/E14-1</f>
+        <f t="shared" ref="F54:N54" si="79">F14/E14-1</f>
         <v>8.6873811033608028E-2</v>
       </c>
       <c r="G54" s="47">
-        <f>G14/F14-1</f>
+        <f t="shared" si="79"/>
         <v>8.7514585764294495E-3</v>
       </c>
       <c r="H54" s="47">
-        <f>H14/G14-1</f>
+        <f t="shared" si="79"/>
         <v>0.12724117987275885</v>
       </c>
       <c r="I54" s="47">
-        <f>I14/H14-1</f>
+        <f t="shared" si="79"/>
         <v>0.57106208311954854</v>
       </c>
       <c r="J54" s="47">
-        <f>J14/I14-1</f>
+        <f t="shared" si="79"/>
         <v>-0.4136185499673416</v>
       </c>
       <c r="K54" s="47">
-        <f>K14/J14-1</f>
+        <f t="shared" si="79"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="L54" s="47">
-        <f>L14/K14-1</f>
+        <f t="shared" si="79"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="M54" s="47">
-        <f>M14/L14-1</f>
+        <f t="shared" si="79"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="N54" s="47">
-        <f>N14/M14-1</f>
+        <f t="shared" si="79"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="O54" s="27"/>
@@ -4812,35 +4812,35 @@
         <v>48</v>
       </c>
       <c r="B57" s="25">
-        <f>B16/B56</f>
+        <f t="shared" ref="B57:I57" si="80">B16/B56</f>
         <v>6742.7007008812743</v>
       </c>
       <c r="C57" s="25">
-        <f>C16/C56</f>
+        <f t="shared" si="80"/>
         <v>5548.2061583549257</v>
       </c>
       <c r="D57" s="25">
-        <f>D16/D56</f>
+        <f t="shared" si="80"/>
         <v>4577.0373885461677</v>
       </c>
       <c r="E57" s="25">
-        <f>E16/E56</f>
+        <f t="shared" si="80"/>
         <v>4491.6770175274578</v>
       </c>
       <c r="F57" s="25">
-        <f>F16/F56</f>
+        <f t="shared" si="80"/>
         <v>4392.1352047917953</v>
       </c>
       <c r="G57" s="25">
-        <f>G16/G56</f>
+        <f t="shared" si="80"/>
         <v>9957.8361552610477</v>
       </c>
       <c r="H57" s="25">
-        <f>H16/H56</f>
+        <f t="shared" si="80"/>
         <v>10816.139174932656</v>
       </c>
       <c r="I57" s="25">
-        <f>I16/I56</f>
+        <f t="shared" si="80"/>
         <v>12171.363991516911</v>
       </c>
       <c r="J57" s="43">
@@ -4848,59 +4848,59 @@
         <v>16673.154301537284</v>
       </c>
       <c r="K57" s="43">
-        <f t="shared" ref="J57:X57" si="71">K16/$C$9</f>
+        <f t="shared" ref="K57:X57" si="81">K16/$C$9</f>
         <v>18363.281127661605</v>
       </c>
       <c r="L57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>20227.642474696844</v>
       </c>
       <c r="M57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>22284.085044698277</v>
       </c>
       <c r="N57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>24552.375702577465</v>
       </c>
       <c r="O57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>25779.994487706339</v>
       </c>
       <c r="P57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>27068.994212091653</v>
       </c>
       <c r="Q57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>28422.443922696239</v>
       </c>
       <c r="R57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>29843.566118831048</v>
       </c>
       <c r="S57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>31335.744424772602</v>
       </c>
       <c r="T57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>32902.53164601123</v>
       </c>
       <c r="U57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>34547.658228311797</v>
       </c>
       <c r="V57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>36275.041139727393</v>
       </c>
       <c r="W57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>38088.793196713756</v>
       </c>
       <c r="X57" s="43">
-        <f t="shared" si="71"/>
+        <f t="shared" si="81"/>
         <v>39993.232856549446</v>
       </c>
     </row>
@@ -4909,95 +4909,95 @@
         <v>49</v>
       </c>
       <c r="B58" s="25">
-        <f>B25/B56</f>
+        <f t="shared" ref="B58:I58" si="82">B25/B56</f>
         <v>76.062331212827033</v>
       </c>
       <c r="C58" s="25">
-        <f>C25/C56</f>
+        <f t="shared" si="82"/>
         <v>-225.15939328655855</v>
       </c>
       <c r="D58" s="25">
-        <f>D25/D56</f>
+        <f t="shared" si="82"/>
         <v>348.51852776875876</v>
       </c>
       <c r="E58" s="25">
-        <f>E25/E56</f>
+        <f t="shared" si="82"/>
         <v>147.07571487719204</v>
       </c>
       <c r="F58" s="25">
-        <f>F25/F56</f>
+        <f t="shared" si="82"/>
         <v>921.21734601327262</v>
       </c>
       <c r="G58" s="25">
-        <f>G25/G56</f>
+        <f t="shared" si="82"/>
         <v>1327.1801160213176</v>
       </c>
       <c r="H58" s="25">
-        <f>H25/H56</f>
+        <f t="shared" si="82"/>
         <v>1752.9032316188725</v>
       </c>
       <c r="I58" s="25">
-        <f>I25/I56</f>
+        <f t="shared" si="82"/>
         <v>2406.2023291289952</v>
       </c>
       <c r="J58" s="43">
-        <f t="shared" ref="J58:X58" si="72">J25/$C$9</f>
+        <f t="shared" ref="J58:X58" si="83">J25/$C$9</f>
         <v>3680.9978698582909</v>
       </c>
       <c r="K58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>3979.1339999433117</v>
       </c>
       <c r="L58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>4291.2173940105868</v>
       </c>
       <c r="M58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>4616.0640304227863</v>
       </c>
       <c r="N58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>4952.0066081289242</v>
       </c>
       <c r="O58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>5520.5475938143618</v>
       </c>
       <c r="P58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>6116.5632806593203</v>
       </c>
       <c r="Q58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>6741.5229811940035</v>
       </c>
       <c r="R58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>7396.9686334528151</v>
       </c>
       <c r="S58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>8084.5184640519992</v>
       </c>
       <c r="T58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>8805.8708339951045</v>
       </c>
       <c r="U58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>9562.8082763541461</v>
       </c>
       <c r="V58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>10357.201735431488</v>
       </c>
       <c r="W58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>11191.015017487634</v>
       </c>
       <c r="X58" s="43">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>12066.309463624046</v>
       </c>
     </row>
@@ -5013,31 +5013,31 @@
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="46">
-        <f t="shared" ref="C60:I60" si="73">C57/B57-1</f>
+        <f t="shared" ref="C60:I60" si="84">C57/B57-1</f>
         <v>-0.17715372452617206</v>
       </c>
       <c r="D60" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>-0.17504194005954443</v>
       </c>
       <c r="E60" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>-1.8649699308185719E-2</v>
       </c>
       <c r="F60" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>-2.2161391468538238E-2</v>
       </c>
       <c r="G60" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>1.2671970900160594</v>
       </c>
       <c r="H60" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>8.619372786306978E-2</v>
       </c>
       <c r="I60" s="46">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>0.12529654016704095</v>
       </c>
       <c r="J60" s="46"/>
@@ -5454,67 +5454,67 @@
         <v>8</v>
       </c>
       <c r="B7" s="30">
-        <f>SUM(B3:B5)</f>
+        <f t="shared" ref="B7:Q7" si="0">SUM(B3:B5)</f>
         <v>154068</v>
       </c>
       <c r="C7" s="62">
-        <f>SUM(C3:C5)</f>
+        <f t="shared" si="0"/>
         <v>374040</v>
       </c>
       <c r="D7" s="62">
-        <f>SUM(D3:D5)</f>
+        <f t="shared" si="0"/>
         <v>328903</v>
       </c>
       <c r="E7" s="62">
-        <f>SUM(E3:E5)</f>
+        <f t="shared" si="0"/>
         <v>198669</v>
       </c>
       <c r="F7" s="30">
-        <f>SUM(F3:F5)</f>
+        <f t="shared" si="0"/>
         <v>168155</v>
       </c>
       <c r="G7" s="62">
-        <f>SUM(G3:G5)</f>
+        <f t="shared" si="0"/>
         <v>220749</v>
       </c>
       <c r="H7" s="62">
-        <f>SUM(H3:H5)</f>
+        <f t="shared" si="0"/>
         <v>608390</v>
       </c>
       <c r="I7" s="62">
-        <f>SUM(I3:I5)</f>
+        <f t="shared" si="0"/>
         <v>203265</v>
       </c>
       <c r="J7" s="30">
-        <f>SUM(J3:J5)</f>
+        <f t="shared" si="0"/>
         <v>172109</v>
       </c>
       <c r="K7" s="62">
-        <f>SUM(K3:K5)</f>
+        <f t="shared" si="0"/>
         <v>271857</v>
       </c>
       <c r="L7" s="62">
-        <f>SUM(L3:L5)</f>
+        <f t="shared" si="0"/>
         <v>578702</v>
       </c>
       <c r="M7" s="62">
-        <f>SUM(M3:M5)</f>
+        <f t="shared" si="0"/>
         <v>285851</v>
       </c>
       <c r="N7" s="30">
-        <f>SUM(N3:N5)</f>
+        <f t="shared" si="0"/>
         <v>358105</v>
       </c>
       <c r="O7" s="62">
-        <f>SUM(O3:O5)</f>
+        <f t="shared" si="0"/>
         <v>411418</v>
       </c>
       <c r="P7" s="62">
-        <f>SUM(P3:P5)</f>
+        <f t="shared" si="0"/>
         <v>634939</v>
       </c>
       <c r="Q7" s="62">
-        <f>SUM(Q3:Q5)</f>
+        <f t="shared" si="0"/>
         <v>341717.45</v>
       </c>
     </row>
@@ -5584,63 +5584,63 @@
         <v>13</v>
       </c>
       <c r="B9" s="31">
-        <f t="shared" ref="B9:M9" si="0">B7-B8</f>
+        <f t="shared" ref="B9:M9" si="1">B7-B8</f>
         <v>64729</v>
       </c>
       <c r="C9" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>233054</v>
       </c>
       <c r="D9" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28521</v>
       </c>
       <c r="E9" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>76962</v>
       </c>
       <c r="F9" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82906</v>
       </c>
       <c r="G9" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89111</v>
       </c>
       <c r="H9" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>237055</v>
       </c>
       <c r="I9" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92117</v>
       </c>
       <c r="J9" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>83416</v>
       </c>
       <c r="K9" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>129686</v>
       </c>
       <c r="L9" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>252988</v>
       </c>
       <c r="M9" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>175612</v>
       </c>
       <c r="N9" s="31">
-        <f t="shared" ref="N9:P9" si="1">N7-N8</f>
+        <f t="shared" ref="N9:P9" si="2">N7-N8</f>
         <v>211544</v>
       </c>
       <c r="O9" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>222524</v>
       </c>
       <c r="P9" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>334748</v>
       </c>
     </row>
@@ -5710,63 +5710,63 @@
         <v>14</v>
       </c>
       <c r="B11" s="31">
-        <f>SUM(B10:B10)</f>
+        <f t="shared" ref="B11:P11" si="3">SUM(B10:B10)</f>
         <v>48520</v>
       </c>
       <c r="C11" s="64">
-        <f>SUM(C10:C10)</f>
+        <f t="shared" si="3"/>
         <v>55235</v>
       </c>
       <c r="D11" s="64">
-        <f>SUM(D10:D10)</f>
+        <f t="shared" si="3"/>
         <v>66087</v>
       </c>
       <c r="E11" s="64">
-        <f>SUM(E10:E10)</f>
+        <f t="shared" si="3"/>
         <v>56141</v>
       </c>
       <c r="F11" s="31">
-        <f>SUM(F10:F10)</f>
+        <f t="shared" si="3"/>
         <v>52372</v>
       </c>
       <c r="G11" s="64">
-        <f>SUM(G10:G10)</f>
+        <f t="shared" si="3"/>
         <v>58241</v>
       </c>
       <c r="H11" s="64">
-        <f>SUM(H10:H10)</f>
+        <f t="shared" si="3"/>
         <v>78430</v>
       </c>
       <c r="I11" s="64">
-        <f>SUM(I10:I10)</f>
+        <f t="shared" si="3"/>
         <v>62445</v>
       </c>
       <c r="J11" s="31">
-        <f>SUM(J10:J10)</f>
+        <f t="shared" si="3"/>
         <v>55989</v>
       </c>
       <c r="K11" s="64">
-        <f>SUM(K10:K10)</f>
+        <f t="shared" si="3"/>
         <v>62891</v>
       </c>
       <c r="L11" s="64">
-        <f>SUM(L10:L10)</f>
+        <f t="shared" si="3"/>
         <v>84279</v>
       </c>
       <c r="M11" s="64">
-        <f>SUM(M10:M10)</f>
+        <f t="shared" si="3"/>
         <v>86172</v>
       </c>
       <c r="N11" s="31">
-        <f>SUM(N10:N10)</f>
+        <f t="shared" si="3"/>
         <v>66808</v>
       </c>
       <c r="O11" s="64">
-        <f>SUM(O10:O10)</f>
+        <f t="shared" si="3"/>
         <v>75836</v>
       </c>
       <c r="P11" s="64">
-        <f>SUM(P10:P10)</f>
+        <f t="shared" si="3"/>
         <v>105063</v>
       </c>
     </row>
@@ -5775,63 +5775,63 @@
         <v>15</v>
       </c>
       <c r="B12" s="31">
-        <f>B9-B11</f>
+        <f t="shared" ref="B12:P12" si="4">B9-B11</f>
         <v>16209</v>
       </c>
       <c r="C12" s="64">
-        <f>C9-C11</f>
+        <f t="shared" si="4"/>
         <v>177819</v>
       </c>
       <c r="D12" s="64">
-        <f>D9-D11</f>
+        <f t="shared" si="4"/>
         <v>-37566</v>
       </c>
       <c r="E12" s="64">
-        <f>E9-E11</f>
+        <f t="shared" si="4"/>
         <v>20821</v>
       </c>
       <c r="F12" s="31">
-        <f>F9-F11</f>
+        <f t="shared" si="4"/>
         <v>30534</v>
       </c>
       <c r="G12" s="64">
-        <f>G9-G11</f>
+        <f t="shared" si="4"/>
         <v>30870</v>
       </c>
       <c r="H12" s="64">
-        <f>H9-H11</f>
+        <f t="shared" si="4"/>
         <v>158625</v>
       </c>
       <c r="I12" s="64">
-        <f>I9-I11</f>
+        <f t="shared" si="4"/>
         <v>29672</v>
       </c>
       <c r="J12" s="31">
-        <f>J9-J11</f>
+        <f t="shared" si="4"/>
         <v>27427</v>
       </c>
       <c r="K12" s="64">
-        <f>K9-K11</f>
+        <f t="shared" si="4"/>
         <v>66795</v>
       </c>
       <c r="L12" s="64">
-        <f>L9-L11</f>
+        <f t="shared" si="4"/>
         <v>168709</v>
       </c>
       <c r="M12" s="64">
-        <f>M9-M11</f>
+        <f t="shared" si="4"/>
         <v>89440</v>
       </c>
       <c r="N12" s="31">
-        <f>N9-N11</f>
+        <f t="shared" si="4"/>
         <v>144736</v>
       </c>
       <c r="O12" s="64">
-        <f>O9-O11</f>
+        <f t="shared" si="4"/>
         <v>146688</v>
       </c>
       <c r="P12" s="64">
-        <f>P9-P11</f>
+        <f t="shared" si="4"/>
         <v>229685</v>
       </c>
     </row>
@@ -5905,63 +5905,63 @@
         <v>17</v>
       </c>
       <c r="B14" s="31">
-        <f t="shared" ref="B14:M14" si="2">B12+B13</f>
+        <f t="shared" ref="B14:M14" si="5">B12+B13</f>
         <v>31364</v>
       </c>
       <c r="C14" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>193911</v>
       </c>
       <c r="D14" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-28899</v>
       </c>
       <c r="E14" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4439</v>
       </c>
       <c r="F14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>43499</v>
       </c>
       <c r="G14" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48048</v>
       </c>
       <c r="H14" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>148019</v>
       </c>
       <c r="I14" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>32205</v>
       </c>
       <c r="J14" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22300</v>
       </c>
       <c r="K14" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>62931</v>
       </c>
       <c r="L14" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>189496</v>
       </c>
       <c r="M14" s="64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>86548</v>
       </c>
       <c r="N14" s="31">
-        <f t="shared" ref="N14:P14" si="3">N12+N13</f>
+        <f t="shared" ref="N14:P14" si="6">N12+N13</f>
         <v>150326</v>
       </c>
       <c r="O14" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>149639</v>
       </c>
       <c r="P14" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>230644</v>
       </c>
     </row>
@@ -6031,63 +6031,63 @@
         <v>9</v>
       </c>
       <c r="B16" s="30">
-        <f t="shared" ref="B16:G16" si="4">B14-B15</f>
+        <f t="shared" ref="B16:G16" si="7">B14-B15</f>
         <v>21796</v>
       </c>
       <c r="C16" s="62">
-        <f t="shared" ref="C16:E16" si="5">C14-C15</f>
+        <f t="shared" ref="C16:E16" si="8">C14-C15</f>
         <v>184943</v>
       </c>
       <c r="D16" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-69616</v>
       </c>
       <c r="E16" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3578</v>
       </c>
       <c r="F16" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30580</v>
       </c>
       <c r="G16" s="62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>33709</v>
       </c>
       <c r="H16" s="62">
-        <f t="shared" ref="H16" si="6">H14-H15</f>
+        <f t="shared" ref="H16" si="9">H14-H15</f>
         <v>104893</v>
       </c>
       <c r="I16" s="62">
-        <f t="shared" ref="I16" si="7">I14-I15</f>
+        <f t="shared" ref="I16" si="10">I14-I15</f>
         <v>25385</v>
       </c>
       <c r="J16" s="30">
-        <f t="shared" ref="J16:K16" si="8">J14-J15</f>
+        <f t="shared" ref="J16:K16" si="11">J14-J15</f>
         <v>16603</v>
       </c>
       <c r="K16" s="62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>45403</v>
       </c>
       <c r="L16" s="62">
-        <f t="shared" ref="L16:M16" si="9">L14-L15</f>
+        <f t="shared" ref="L16:M16" si="12">L14-L15</f>
         <v>134413</v>
       </c>
       <c r="M16" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>62267</v>
       </c>
       <c r="N16" s="30">
-        <f t="shared" ref="N16:O16" si="10">N14-N15</f>
+        <f t="shared" ref="N16:O16" si="13">N14-N15</f>
         <v>106506</v>
       </c>
       <c r="O16" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>106650</v>
       </c>
       <c r="P16" s="62">
-        <f t="shared" ref="P16" si="11">P14-P15</f>
+        <f t="shared" ref="P16" si="14">P14-P15</f>
         <v>163550</v>
       </c>
     </row>
@@ -6096,63 +6096,63 @@
         <v>19</v>
       </c>
       <c r="B17" s="32" t="e">
-        <f t="shared" ref="B17:G17" si="12">B16/B18</f>
+        <f t="shared" ref="B17:G17" si="15">B16/B18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C17" s="65" t="e">
-        <f t="shared" ref="C17:E17" si="13">C16/C18</f>
+        <f t="shared" ref="C17:E17" si="16">C16/C18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D17" s="65" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="65" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="32" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="65" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="65" t="e">
-        <f t="shared" ref="H17" si="14">H16/H18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="65">
-        <f t="shared" ref="I17" si="15">I16/I18</f>
-        <v>192.79405175098162</v>
-      </c>
-      <c r="J17" s="32" t="e">
-        <f t="shared" ref="J17:K17" si="16">J16/J18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="65" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E17" s="65" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" s="32" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="65" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="65" t="e">
+        <f t="shared" ref="H17" si="17">H16/H18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="65">
+        <f t="shared" ref="I17" si="18">I16/I18</f>
+        <v>192.79405175098162</v>
+      </c>
+      <c r="J17" s="32" t="e">
+        <f t="shared" ref="J17:K17" si="19">J16/J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="65" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="L17" s="65" t="e">
-        <f t="shared" ref="L17:M17" si="17">L16/L18</f>
+        <f t="shared" ref="L17:M17" si="20">L16/L18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M17" s="65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>472.90554344606545</v>
       </c>
       <c r="N17" s="32" t="e">
-        <f t="shared" ref="N17:O17" si="18">N16/N18</f>
+        <f t="shared" ref="N17:O17" si="21">N16/N18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O17" s="65" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" s="65">
-        <f t="shared" ref="P17" si="19">P16/P18</f>
+        <f t="shared" ref="P17" si="22">P16/P18</f>
         <v>1242.1298863058123</v>
       </c>
     </row>
@@ -6199,51 +6199,51 @@
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
       <c r="F20" s="33">
-        <f>F7/B7-1</f>
+        <f t="shared" ref="F20:Q20" si="23">F7/B7-1</f>
         <v>9.1433652672845867E-2</v>
       </c>
       <c r="G20" s="66">
-        <f>G7/C7-1</f>
+        <f t="shared" si="23"/>
         <v>-0.40982515239011874</v>
       </c>
       <c r="H20" s="66">
-        <f>H7/D7-1</f>
+        <f t="shared" si="23"/>
         <v>0.84975509496720925</v>
       </c>
       <c r="I20" s="66">
-        <f>I7/E7-1</f>
+        <f t="shared" si="23"/>
         <v>2.3133956480376971E-2</v>
       </c>
       <c r="J20" s="33">
-        <f>J7/F7-1</f>
+        <f t="shared" si="23"/>
         <v>2.3514019803157815E-2</v>
       </c>
       <c r="K20" s="66">
-        <f>K7/G7-1</f>
+        <f t="shared" si="23"/>
         <v>0.2315208675916991</v>
       </c>
       <c r="L20" s="66">
-        <f>L7/H7-1</f>
+        <f t="shared" si="23"/>
         <v>-4.879764624665095E-2</v>
       </c>
       <c r="M20" s="66">
-        <f>M7/I7-1</f>
+        <f t="shared" si="23"/>
         <v>0.40629719823875243</v>
       </c>
       <c r="N20" s="33">
-        <f>N7/J7-1</f>
+        <f t="shared" si="23"/>
         <v>1.080687238900929</v>
       </c>
       <c r="O20" s="66">
-        <f>O7/K7-1</f>
+        <f t="shared" si="23"/>
         <v>0.51336180418381727</v>
       </c>
       <c r="P20" s="66">
-        <f>P7/L7-1</f>
+        <f t="shared" si="23"/>
         <v>9.717782209150827E-2</v>
       </c>
       <c r="Q20" s="66">
-        <f>Q7/M7-1</f>
+        <f t="shared" si="23"/>
         <v>0.19543905741102896</v>
       </c>
     </row>
@@ -6256,47 +6256,47 @@
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
       <c r="F21" s="28">
-        <f>F10/B10-1</f>
+        <f t="shared" ref="F21:P21" si="24">F10/B10-1</f>
         <v>7.9389942291838489E-2</v>
       </c>
       <c r="G21" s="63">
-        <f>G10/C10-1</f>
+        <f t="shared" si="24"/>
         <v>5.4422015026704074E-2</v>
       </c>
       <c r="H21" s="63">
-        <f>H10/D10-1</f>
+        <f t="shared" si="24"/>
         <v>0.18676895607305521</v>
       </c>
       <c r="I21" s="63">
-        <f>I10/E10-1</f>
+        <f t="shared" si="24"/>
         <v>0.11228870166188698</v>
       </c>
       <c r="J21" s="28">
-        <f>J10/F10-1</f>
+        <f t="shared" si="24"/>
         <v>6.9063621782631923E-2</v>
       </c>
       <c r="K21" s="63">
-        <f>K10/G10-1</f>
+        <f t="shared" si="24"/>
         <v>7.9840662076543945E-2</v>
       </c>
       <c r="L21" s="63">
-        <f>L10/H10-1</f>
+        <f t="shared" si="24"/>
         <v>7.4576055080963988E-2</v>
       </c>
       <c r="M21" s="63">
-        <f>M10/I10-1</f>
+        <f t="shared" si="24"/>
         <v>0.37996637040595727</v>
       </c>
       <c r="N21" s="28">
-        <f>N10/J10-1</f>
+        <f t="shared" si="24"/>
         <v>0.19323438532568904</v>
       </c>
       <c r="O21" s="63">
-        <f>O10/K10-1</f>
+        <f t="shared" si="24"/>
         <v>0.20583231304956184</v>
       </c>
       <c r="P21" s="63">
-        <f>P10/L10-1</f>
+        <f t="shared" si="24"/>
         <v>0.24660947567009583</v>
       </c>
     </row>
@@ -6318,63 +6318,63 @@
         <v>20</v>
       </c>
       <c r="B23" s="28">
-        <f>B9/B7</f>
+        <f t="shared" ref="B23:P23" si="25">B9/B7</f>
         <v>0.42013266869174648</v>
       </c>
       <c r="C23" s="63">
-        <f>C9/C7</f>
+        <f t="shared" si="25"/>
         <v>0.6230723986739386</v>
       </c>
       <c r="D23" s="63">
-        <f>D9/D7</f>
+        <f t="shared" si="25"/>
         <v>8.6715536191521517E-2</v>
       </c>
       <c r="E23" s="63">
-        <f>E9/E7</f>
+        <f t="shared" si="25"/>
         <v>0.3873880675898102</v>
       </c>
       <c r="F23" s="28">
-        <f>F9/F7</f>
+        <f t="shared" si="25"/>
         <v>0.49303321340429962</v>
       </c>
       <c r="G23" s="63">
-        <f>G9/G7</f>
+        <f t="shared" si="25"/>
         <v>0.40367566783994491</v>
       </c>
       <c r="H23" s="63">
-        <f>H9/H7</f>
+        <f t="shared" si="25"/>
         <v>0.38964315652788506</v>
       </c>
       <c r="I23" s="63">
-        <f>I9/I7</f>
+        <f t="shared" si="25"/>
         <v>0.4531867266868374</v>
       </c>
       <c r="J23" s="28">
-        <f>J9/J7</f>
+        <f t="shared" si="25"/>
         <v>0.48466959891696543</v>
       </c>
       <c r="K23" s="63">
-        <f>K9/K7</f>
+        <f t="shared" si="25"/>
         <v>0.4770375601878929</v>
       </c>
       <c r="L23" s="63">
-        <f>L9/L7</f>
+        <f t="shared" si="25"/>
         <v>0.43716455101243817</v>
       </c>
       <c r="M23" s="63">
-        <f>M9/M7</f>
+        <f t="shared" si="25"/>
         <v>0.61434803446550823</v>
       </c>
       <c r="N23" s="28">
-        <f>N9/N7</f>
+        <f t="shared" si="25"/>
         <v>0.59073176861535026</v>
       </c>
       <c r="O23" s="63">
-        <f>O9/O7</f>
+        <f t="shared" si="25"/>
         <v>0.54087084182024125</v>
       </c>
       <c r="P23" s="63">
-        <f>P9/P7</f>
+        <f t="shared" si="25"/>
         <v>0.52721285036830312</v>
       </c>
     </row>
@@ -6383,63 +6383,63 @@
         <v>21</v>
       </c>
       <c r="B24" s="28">
-        <f>B12/B7</f>
+        <f t="shared" ref="B24:P24" si="26">B12/B7</f>
         <v>0.10520679180621544</v>
       </c>
       <c r="C24" s="63">
-        <f>C12/C7</f>
+        <f t="shared" si="26"/>
         <v>0.47540102662816813</v>
       </c>
       <c r="D24" s="63">
-        <f>D12/D7</f>
+        <f t="shared" si="26"/>
         <v>-0.11421604546021168</v>
       </c>
       <c r="E24" s="63">
-        <f>E12/E7</f>
+        <f t="shared" si="26"/>
         <v>0.10480246037378756</v>
       </c>
       <c r="F24" s="28">
-        <f>F12/F7</f>
+        <f t="shared" si="26"/>
         <v>0.18158246855579674</v>
       </c>
       <c r="G24" s="63">
-        <f>G12/G7</f>
+        <f t="shared" si="26"/>
         <v>0.13984208308984411</v>
       </c>
       <c r="H24" s="63">
-        <f>H12/H7</f>
+        <f t="shared" si="26"/>
         <v>0.26072913755978894</v>
       </c>
       <c r="I24" s="63">
-        <f>I12/I7</f>
+        <f t="shared" si="26"/>
         <v>0.14597692667207832</v>
       </c>
       <c r="J24" s="28">
-        <f>J12/J7</f>
+        <f t="shared" si="26"/>
         <v>0.15935831362682951</v>
       </c>
       <c r="K24" s="63">
-        <f>K12/K7</f>
+        <f t="shared" si="26"/>
         <v>0.24569902559065979</v>
       </c>
       <c r="L24" s="63">
-        <f>L12/L7</f>
+        <f t="shared" si="26"/>
         <v>0.29153001026435021</v>
       </c>
       <c r="M24" s="63">
-        <f>M12/M7</f>
+        <f t="shared" si="26"/>
         <v>0.31289028200006297</v>
       </c>
       <c r="N24" s="28">
-        <f>N12/N7</f>
+        <f t="shared" si="26"/>
         <v>0.40417196073777245</v>
       </c>
       <c r="O24" s="63">
-        <f>O12/O7</f>
+        <f t="shared" si="26"/>
         <v>0.3565424944946502</v>
       </c>
       <c r="P24" s="63">
-        <f>P12/P7</f>
+        <f t="shared" si="26"/>
         <v>0.36174341157182027</v>
       </c>
     </row>
@@ -6448,63 +6448,63 @@
         <v>22</v>
       </c>
       <c r="B25" s="28">
-        <f>B15/B14</f>
+        <f t="shared" ref="B25:P25" si="27">B15/B14</f>
         <v>0.30506312970284405</v>
       </c>
       <c r="C25" s="63">
-        <f>C15/C14</f>
+        <f t="shared" si="27"/>
         <v>4.624802099932443E-2</v>
       </c>
       <c r="D25" s="63">
-        <f>D15/D14</f>
+        <f t="shared" si="27"/>
         <v>-1.4089414858645628</v>
       </c>
       <c r="E25" s="63">
-        <f>E15/E14</f>
+        <f t="shared" si="27"/>
         <v>0.19396260419013292</v>
       </c>
       <c r="F25" s="28">
-        <f>F15/F14</f>
+        <f t="shared" si="27"/>
         <v>0.29699533322605115</v>
       </c>
       <c r="G25" s="63">
-        <f>G15/G14</f>
+        <f t="shared" si="27"/>
         <v>0.29843073593073594</v>
       </c>
       <c r="H25" s="63">
-        <f>H15/H14</f>
+        <f t="shared" si="27"/>
         <v>0.29135448827515387</v>
       </c>
       <c r="I25" s="63">
-        <f>I15/I14</f>
+        <f t="shared" si="27"/>
         <v>0.21176835895047352</v>
       </c>
       <c r="J25" s="28">
-        <f>J15/J14</f>
+        <f t="shared" si="27"/>
         <v>0.25547085201793723</v>
       </c>
       <c r="K25" s="63">
-        <f>K15/K14</f>
+        <f t="shared" si="27"/>
         <v>0.27852727590535664</v>
       </c>
       <c r="L25" s="63">
-        <f>L15/L14</f>
+        <f t="shared" si="27"/>
         <v>0.2906815975007388</v>
       </c>
       <c r="M25" s="63">
-        <f>M15/M14</f>
+        <f t="shared" si="27"/>
         <v>0.28054952165272451</v>
       </c>
       <c r="N25" s="28">
-        <f>N15/N14</f>
+        <f t="shared" si="27"/>
         <v>0.29149980708593326</v>
       </c>
       <c r="O25" s="63">
-        <f>O15/O14</f>
+        <f t="shared" si="27"/>
         <v>0.28728473192149107</v>
       </c>
       <c r="P25" s="63">
-        <f>P15/P14</f>
+        <f t="shared" si="27"/>
         <v>0.29089852760097812</v>
       </c>
     </row>
@@ -6516,21 +6516,21 @@
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="62">
-        <f t="shared" ref="E27" si="20">E28-E29</f>
+        <f t="shared" ref="E27" si="28">E28-E29</f>
         <v>1048509</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="62">
-        <f t="shared" ref="I27" si="21">I28-I29</f>
+        <f t="shared" ref="I27" si="29">I28-I29</f>
         <v>1190405</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
       <c r="M27" s="62">
-        <f t="shared" ref="M27" si="22">M28-M29</f>
+        <f t="shared" ref="M27" si="30">M28-M29</f>
         <v>1356420</v>
       </c>
       <c r="N27" s="39"/>
@@ -6714,21 +6714,21 @@
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="64">
-        <f t="shared" ref="E35" si="23">E32-E31-E28</f>
+        <f t="shared" ref="E35" si="31">E32-E31-E28</f>
         <v>432930</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="I35" s="64">
-        <f t="shared" ref="I35" si="24">I32-I31-I28</f>
+        <f t="shared" ref="I35" si="32">I32-I31-I28</f>
         <v>426120</v>
       </c>
       <c r="J35" s="23"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="64">
-        <f t="shared" ref="M35" si="25">M32-M31-M28</f>
+        <f t="shared" ref="M35" si="33">M32-M31-M28</f>
         <v>464576</v>
       </c>
       <c r="N35" s="23"/>
@@ -6743,21 +6743,21 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="64">
-        <f t="shared" ref="E36" si="26">E32-E33</f>
+        <f t="shared" ref="E36" si="34">E32-E33</f>
         <v>1323575</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="64">
-        <f t="shared" ref="I36" si="27">I32-I33</f>
+        <f t="shared" ref="I36" si="35">I32-I33</f>
         <v>1414799</v>
       </c>
       <c r="J36" s="23"/>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="64">
-        <f t="shared" ref="M36" si="28">M32-M33</f>
+        <f t="shared" ref="M36" si="36">M32-M33</f>
         <v>1540901</v>
       </c>
       <c r="N36" s="23"/>
@@ -6816,15 +6816,15 @@
         <v>26</v>
       </c>
       <c r="E39" s="63">
-        <f t="shared" ref="E39" si="29">E38/E36</f>
+        <f t="shared" ref="E39" si="37">E38/E36</f>
         <v>0.10630376064824434</v>
       </c>
       <c r="I39" s="63">
-        <f t="shared" ref="I39" si="30">I38/I36</f>
+        <f t="shared" ref="I39" si="38">I38/I36</f>
         <v>0.13752271524082219</v>
       </c>
       <c r="M39" s="63">
-        <f t="shared" ref="M39" si="31">M38/M36</f>
+        <f t="shared" ref="M39" si="39">M38/M36</f>
         <v>0.16787970155123527</v>
       </c>
     </row>
@@ -6833,15 +6833,15 @@
         <v>27</v>
       </c>
       <c r="E40" s="63">
-        <f t="shared" ref="E40" si="32">E38/E32</f>
+        <f t="shared" ref="E40" si="40">E38/E32</f>
         <v>8.613605114008549E-2</v>
       </c>
       <c r="I40" s="63">
-        <f t="shared" ref="I40" si="33">I38/I32</f>
+        <f t="shared" ref="I40" si="41">I38/I32</f>
         <v>0.11510769660368786</v>
       </c>
       <c r="M40" s="63">
-        <f t="shared" ref="M40" si="34">M38/M32</f>
+        <f t="shared" ref="M40" si="42">M38/M32</f>
         <v>0.13375096363296998</v>
       </c>
     </row>
@@ -6850,15 +6850,15 @@
         <v>28</v>
       </c>
       <c r="E41" s="63">
-        <f t="shared" ref="E41" si="35">E38/(E36-E31)</f>
+        <f t="shared" ref="E41" si="43">E38/(E36-E31)</f>
         <v>0.10744184093069784</v>
       </c>
       <c r="I41" s="63">
-        <f t="shared" ref="I41" si="36">I38/(I36-I31)</f>
+        <f t="shared" ref="I41" si="44">I38/(I36-I31)</f>
         <v>0.13890608256247372</v>
       </c>
       <c r="M41" s="63">
-        <f t="shared" ref="M41" si="37">M38/(M36-M31)</f>
+        <f t="shared" ref="M41" si="45">M38/(M36-M31)</f>
         <v>0.16953189102186011</v>
       </c>
     </row>
@@ -6869,17 +6869,17 @@
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="63">
-        <f t="shared" ref="E42" si="38">E38/E35</f>
+        <f t="shared" ref="E42" si="46">E38/E35</f>
         <v>0.32499711269720277</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="63">
-        <f t="shared" ref="I42" si="39">I38/I35</f>
+        <f t="shared" ref="I42" si="47">I38/I35</f>
         <v>0.45660142682812355</v>
       </c>
       <c r="M42" s="63">
-        <f t="shared" ref="M42" si="40">M38/M35</f>
+        <f t="shared" ref="M42" si="48">M38/M35</f>
         <v>0.55682170409147269</v>
       </c>
     </row>
@@ -6900,51 +6900,51 @@
       <c r="D44" s="63"/>
       <c r="E44" s="63"/>
       <c r="F44" s="28">
-        <f>F3/B3-1</f>
+        <f t="shared" ref="F44:Q46" si="49">F3/B3-1</f>
         <v>9.6131106731666804E-2</v>
       </c>
       <c r="G44" s="63">
-        <f>G3/C3-1</f>
+        <f t="shared" si="49"/>
         <v>-0.40718817376814775</v>
       </c>
       <c r="H44" s="63">
-        <f>H3/D3-1</f>
+        <f t="shared" si="49"/>
         <v>0.8160638734287271</v>
       </c>
       <c r="I44" s="63">
-        <f>I3/E3-1</f>
+        <f t="shared" si="49"/>
         <v>1.1536907470812263E-2</v>
       </c>
       <c r="J44" s="28">
-        <f>J3/F3-1</f>
+        <f t="shared" si="49"/>
         <v>1.9631963764138893E-2</v>
       </c>
       <c r="K44" s="63">
-        <f>K3/G3-1</f>
+        <f t="shared" si="49"/>
         <v>0.24078760570335156</v>
       </c>
       <c r="L44" s="63">
-        <f>L3/H3-1</f>
+        <f t="shared" si="49"/>
         <v>-5.5012558790310306E-2</v>
       </c>
       <c r="M44" s="63">
-        <f>M3/I3-1</f>
+        <f t="shared" si="49"/>
         <v>0.42241225257802406</v>
       </c>
       <c r="N44" s="28">
-        <f>N3/J3-1</f>
+        <f t="shared" si="49"/>
         <v>1.1316038582185128</v>
       </c>
       <c r="O44" s="63">
-        <f>O3/K3-1</f>
+        <f t="shared" si="49"/>
         <v>0.52062940541698866</v>
       </c>
       <c r="P44" s="63">
-        <f>P3/L3-1</f>
+        <f t="shared" si="49"/>
         <v>0.10451392853065422</v>
       </c>
       <c r="Q44" s="63">
-        <f>Q3/M3-1</f>
+        <f t="shared" si="49"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
@@ -6957,51 +6957,51 @@
       <c r="D45" s="63"/>
       <c r="E45" s="63"/>
       <c r="F45" s="28">
-        <f>F4/B4-1</f>
+        <f t="shared" si="49"/>
         <v>3.8622820569411687E-3</v>
       </c>
       <c r="G45" s="63">
-        <f>G4/C4-1</f>
+        <f t="shared" si="49"/>
         <v>-0.46058577405857737</v>
       </c>
       <c r="H45" s="63">
-        <f>H4/D4-1</f>
+        <f t="shared" si="49"/>
         <v>5.9148533585619676</v>
       </c>
       <c r="I45" s="63">
-        <f>I4/E4-1</f>
+        <f t="shared" si="49"/>
         <v>0.23534592425873369</v>
       </c>
       <c r="J45" s="28">
-        <f>J4/F4-1</f>
+        <f t="shared" si="49"/>
         <v>9.9813125206111852E-2</v>
       </c>
       <c r="K45" s="63">
-        <f>K4/G4-1</f>
+        <f t="shared" si="49"/>
         <v>2.9992760368187099E-2</v>
       </c>
       <c r="L45" s="63">
-        <f>L4/H4-1</f>
+        <f t="shared" si="49"/>
         <v>0.15925571213572298</v>
       </c>
       <c r="M45" s="63">
-        <f>M4/I4-1</f>
+        <f t="shared" si="49"/>
         <v>0.13949619771863109</v>
       </c>
       <c r="N45" s="28">
-        <f>N4/J4-1</f>
+        <f t="shared" si="49"/>
         <v>0.3271364317841079</v>
       </c>
       <c r="O45" s="63">
-        <f>O4/K4-1</f>
+        <f t="shared" si="49"/>
         <v>0.35043679084245416</v>
       </c>
       <c r="P45" s="63">
-        <f>P4/L4-1</f>
+        <f t="shared" si="49"/>
         <v>-9.8076242181045714E-2</v>
       </c>
       <c r="Q45" s="63">
-        <f>Q4/M4-1</f>
+        <f t="shared" si="49"/>
         <v>0.14999999999999991</v>
       </c>
     </row>
@@ -7014,51 +7014,51 @@
       <c r="D46" s="63"/>
       <c r="E46" s="63"/>
       <c r="F46" s="28">
-        <f>F5/B5-1</f>
+        <f t="shared" si="49"/>
         <v>0.38363171355498715</v>
       </c>
       <c r="G46" s="63">
-        <f>G5/C5-1</f>
+        <f t="shared" si="49"/>
         <v>-0.44205495818399043</v>
       </c>
       <c r="H46" s="63">
-        <f>H5/D5-1</f>
+        <f t="shared" si="49"/>
         <v>2.93006993006993</v>
       </c>
       <c r="I46" s="63">
-        <f>I5/E5-1</f>
+        <f t="shared" si="49"/>
         <v>5.8659217877095049E-2</v>
       </c>
       <c r="J46" s="28">
-        <f>J5/F5-1</f>
+        <f t="shared" si="49"/>
         <v>-0.12199630314232901</v>
       </c>
       <c r="K46" s="63">
-        <f>K5/G5-1</f>
+        <f t="shared" si="49"/>
         <v>0.22483940042826545</v>
       </c>
       <c r="L46" s="63">
-        <f>L5/H5-1</f>
+        <f t="shared" si="49"/>
         <v>1.0996441281138791</v>
       </c>
       <c r="M46" s="63">
-        <f>M5/I5-1</f>
+        <f t="shared" si="49"/>
         <v>1.2031662269129288</v>
       </c>
       <c r="N46" s="28">
-        <f>N5/J5-1</f>
+        <f t="shared" si="49"/>
         <v>-0.37263157894736842</v>
       </c>
       <c r="O46" s="63">
-        <f>O5/K5-1</f>
+        <f t="shared" si="49"/>
         <v>2.9720279720279796E-2</v>
       </c>
       <c r="P46" s="63">
-        <f>P5/L5-1</f>
+        <f t="shared" si="49"/>
         <v>-0.58389830508474572</v>
       </c>
       <c r="Q46" s="63">
-        <f>Q5/M5-1</f>
+        <f t="shared" si="49"/>
         <v>-0.5</v>
       </c>
     </row>
